--- a/PBStools/inst/sql/bio.fields.xlsx
+++ b/PBStools/inst/sql/bio.fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="7740" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bio.fields" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6269" uniqueCount="3832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6301" uniqueCount="3864">
   <si>
     <t>EID</t>
   </si>
@@ -11540,6 +11540,102 @@
   </si>
   <si>
     <t>There were no problems with the operation of the gear, but no fish were caught.</t>
+  </si>
+  <si>
+    <t>PJS ssid</t>
+  </si>
+  <si>
+    <t>PJS survey descriptions</t>
+  </si>
+  <si>
+    <t>old Hecate St Survey (note: this program does not prepare the recruited biomass estimate as done for ENL in 2006)</t>
+  </si>
+  <si>
+    <t>QC Sound Synoptic</t>
+  </si>
+  <si>
+    <t>WCVI Synoptic</t>
+  </si>
+  <si>
+    <t>WCVI Shrimp</t>
+  </si>
+  <si>
+    <t>Triennial</t>
+  </si>
+  <si>
+    <t>Pcod Monitoring</t>
+  </si>
+  <si>
+    <t>QCSound Shrimp</t>
+  </si>
+  <si>
+    <t>historical GB Reed survey (now includes 1984 Eastward Ho and 1990s Ocean Selector and Frosti - use this for biomass ests)</t>
+  </si>
+  <si>
+    <t>WCQCI Synoptic (added Nov 2008)</t>
+  </si>
+  <si>
+    <t>Hecate St synoptic survey (added July 2010)</t>
+  </si>
+  <si>
+    <t>retrospective GIG (includes GB Reed and misc GIG surveys) (added Nov 2009 - not for biomass)</t>
+  </si>
+  <si>
+    <t>retrospective GIG (1995 Ocean Selector and Frosti only - QC Snd synoptic stratification) (added Dec 2009)</t>
+  </si>
+  <si>
+    <t>PJS</t>
+  </si>
+  <si>
+    <t>GFBioSQL description</t>
+  </si>
+  <si>
+    <t>GFB</t>
+  </si>
+  <si>
+    <t>Abbr</t>
+  </si>
+  <si>
+    <t>HSass</t>
+  </si>
+  <si>
+    <t>QCSsyn</t>
+  </si>
+  <si>
+    <t>WCVIsyn</t>
+  </si>
+  <si>
+    <t>NMFStri</t>
+  </si>
+  <si>
+    <t>WCVIshr</t>
+  </si>
+  <si>
+    <t>HSpac</t>
+  </si>
+  <si>
+    <t>HSsyn</t>
+  </si>
+  <si>
+    <t>QCSshr</t>
+  </si>
+  <si>
+    <t>GIGhis</t>
+  </si>
+  <si>
+    <t>WCHGsyn</t>
+  </si>
+  <si>
+    <t>GIG1995</t>
+  </si>
+  <si>
+    <t>GBRhis</t>
+  </si>
+  <si>
+    <t>Miscellaneous SSIDs from bioxxx files</t>
+  </si>
+  <si>
+    <t>UNKNOWN SAMPLE TYPE FOR NMFS TRIENNIAL SURVEY</t>
   </si>
 </sst>
 </file>
@@ -12100,7 +12196,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12152,6 +12248,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -23652,10 +23749,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -23664,111 +23761,213 @@
     <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>747</v>
       </c>
       <c r="B1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
@@ -23776,7 +23975,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
@@ -23784,111 +23983,300 @@
         <v>764</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="F16" s="2" t="s">
+        <v>3846</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3849</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3848</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H17">
+        <f>INDEX($A$2:$C$74,MATCH($F17,$C$2:$C$74,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="I17" t="str">
+        <f>INDEX($A$2:$C$74,MATCH($F17,$C$2:$C$74,0),2)</f>
+        <v>Hecate Strait Multispecies Assemblage Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3851</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H28" si="0">INDEX($A$2:$C$74,MATCH($F18,$C$2:$C$74,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" ref="I18:I28" si="1">INDEX($A$2:$C$74,MATCH($F18,$C$2:$C$74,0),2)</f>
+        <v>Queen Charlotte Sound Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3852</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>West Coast Vancouver Island Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3854</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>West Coast Vancouver Island Multispecies Small-mesh Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3853</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>National Marine Fisheries Service Triennial Bottom Trawl (Vancouver Region)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3855</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>Hecate Strait Pacific Cod Monitoring Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3857</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>Queen Charlotte Sound Multispecies Small-mesh Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3861</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>Goose Island Gully Historic G.B. Reed Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3859</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>West Coast Haida Gwaii Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3856</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>Hecate Strait Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3858</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>Goose Island Gully Bottom Trawl Retrospective</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3860</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>1995 Goose Island Gully Rockfish Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>27</v>
       </c>
@@ -23896,7 +24284,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>28</v>
       </c>
@@ -23904,167 +24292,303 @@
         <v>779</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="F31" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX($A$2:$C$74,MATCH($F32,$A$2:$A$74,0),2)</f>
+        <v>Individual survey without a series</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:G50" si="2">INDEX($A$2:$C$74,MATCH($F33,$A$2:$A$74,0),2)</f>
+        <v>Queen Charlotte Sound Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>Hecate Strait Multispecies Assemblage Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>Hecate Strait Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>West Coast Vancouver Island Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>1997 West Coast Queen Charlotte Island Rockfish Bottom Trawl (single survey series)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>1996 West Coast Vancouver Island Rockfish Bottom Trawl (single survey series)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>West Coast Vancouver Island Thornyhead Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="F40">
+        <v>14</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>International Pacific Halibut Commission Fishery-Independent Setline Survey</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>West Coast Haida Gwaii Synoptic Bottom Trawl</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="F42">
+        <v>21</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>Goose Island Gully Bottom Trawl Retrospective</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="F43">
+        <v>22</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Hard Bottom Longline Outside North </v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>Strait of Georgia Ecosystem Research Initiative Acoustic</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="F45">
+        <v>36</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>Hard Bottom Longline Outside South</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="F46">
+        <v>68</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>Joint Canada/US Hake Acoustic</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="F47">
+        <v>79</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>National Marine Fisheries Service Triennial Bottom Trawl (Vancouver Region)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="F48">
+        <v>350</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>Standardised Sablefish Trap</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="F49">
+        <v>670</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>WCVI + QCS Shrimp Trawl</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="F50">
+        <v>999</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>No survey (probably commercial)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>68</v>
       </c>
@@ -24072,7 +24596,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>69</v>
       </c>
@@ -24080,7 +24604,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>70</v>
       </c>
@@ -24088,7 +24612,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>71</v>
       </c>
@@ -24096,7 +24620,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>72</v>
       </c>
@@ -24104,7 +24628,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>73</v>
       </c>
@@ -24112,7 +24636,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>74</v>
       </c>
@@ -24120,7 +24644,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>75</v>
       </c>
@@ -24128,7 +24652,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>76</v>
       </c>
@@ -24136,7 +24660,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>77</v>
       </c>
@@ -24144,7 +24668,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>78</v>
       </c>
@@ -24152,15 +24676,18 @@
         <v>810</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>79</v>
       </c>
       <c r="B62" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>80</v>
       </c>
@@ -24168,7 +24695,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>81</v>
       </c>
@@ -61644,9 +62171,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -61788,6 +62317,14 @@
       </c>
       <c r="B17" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3863</v>
       </c>
     </row>
   </sheetData>
@@ -62637,7 +63174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/PBStools/inst/sql/bio.fields.xlsx
+++ b/PBStools/inst/sql/bio.fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="7740" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="7740" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="bio.fields" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9186" uniqueCount="6534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9236" uniqueCount="6582">
   <si>
     <t>EID</t>
   </si>
@@ -19648,13 +19648,157 @@
   </si>
   <si>
     <t>Jig surveys</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>3CD: WEST COAST VANCOUVER ISLAND</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>3D5A: N.W. VANCOUVER ISLAND AND SOUTHERN Q.C. SOUND</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>5AB: QUEEN CHARLOTTE SOUND</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>5BC: NORTHERN Q.C. SOUND AND SOUTHERN HECATE STRAIT</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>5CD: HECATE STRAIT</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>5DE: NORTHERN HECATE STRAIT AND WEST COAST HAIDA GWAII</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>5BE: NORTHERN Q.C. SOUND AND WEST COAST HAIDA GWAII</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>3CD</t>
+  </si>
+  <si>
+    <t>5AB</t>
+  </si>
+  <si>
+    <t>5BC</t>
+  </si>
+  <si>
+    <t>5CD</t>
+  </si>
+  <si>
+    <t>5DE</t>
+  </si>
+  <si>
+    <t>5BE</t>
+  </si>
+  <si>
+    <t>3D5A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -19825,6 +19969,16 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="36">
@@ -20185,7 +20339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -20234,8 +20388,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -20317,8 +20472,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -20358,6 +20519,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_ameth" xfId="42"/>
     <cellStyle name="Normal_ART" xfId="44"/>
+    <cellStyle name="Normal_major" xfId="48"/>
     <cellStyle name="Normal_mat.conv" xfId="45"/>
     <cellStyle name="Normal_mat.rf" xfId="46"/>
     <cellStyle name="Normal_source" xfId="47"/>
@@ -43105,10 +43267,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43117,297 +43279,385 @@
     <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="35" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="36" t="s">
+        <v>6534</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>334</v>
       </c>
       <c r="C2" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="36" t="s">
+        <v>6535</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="36" t="s">
+        <v>6536</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="36" t="s">
+        <v>6537</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="36" t="s">
+        <v>6538</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="36" t="s">
+        <v>6539</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="36" t="s">
+        <v>6540</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="36" t="s">
+        <v>6541</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="36" t="s">
+        <v>6542</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="36" t="s">
+        <v>6543</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="36" t="s">
+        <v>6544</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="36" t="s">
+        <v>6545</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="36" t="s">
+        <v>6546</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="36" t="s">
+        <v>6547</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="36" t="s">
+        <v>6548</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="36" t="s">
+        <v>6549</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="36" t="s">
+        <v>6550</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="36" t="s">
+        <v>6551</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="36" t="s">
+        <v>6552</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="36" t="s">
+        <v>6553</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="36" t="s">
+        <v>6554</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="36" t="s">
+        <v>6555</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="36" t="s">
+        <v>6556</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="36" t="s">
+        <v>6557</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="36" t="s">
+        <v>6558</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="36" t="s">
+        <v>6559</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="36" t="s">
+        <v>6560</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>6561</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="36" t="s">
+        <v>6562</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>6563</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="36" t="s">
+        <v>6564</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>6565</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="36" t="s">
+        <v>6566</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>6567</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="36" t="s">
+        <v>6568</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>6569</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="36" t="s">
+        <v>6570</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>6571</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="36" t="s">
+        <v>6572</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>6573</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="36" t="s">
+        <v>6574</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C35" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -52421,7 +52671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:B86"/>
     </sheetView>
   </sheetViews>

--- a/PBStools/inst/sql/bio.fields.xlsx
+++ b/PBStools/inst/sql/bio.fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="7740" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="7740" firstSheet="11" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="bio.fields" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9236" uniqueCount="6582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9269" uniqueCount="6610">
   <si>
     <t>EID</t>
   </si>
@@ -19792,13 +19792,97 @@
   </si>
   <si>
     <t>3D5A</t>
+  </si>
+  <si>
+    <t>FISHERY_SECTOR</t>
+  </si>
+  <si>
+    <t>NSECTOR</t>
+  </si>
+  <si>
+    <t>FOREIGN</t>
+  </si>
+  <si>
+    <t>GROUNDFISH LONGLINE</t>
+  </si>
+  <si>
+    <t>GROUNDFISH TRAWL</t>
+  </si>
+  <si>
+    <t>HALIBUT</t>
+  </si>
+  <si>
+    <t>HALIBUT AND SABLEFISH</t>
+  </si>
+  <si>
+    <t>K/L</t>
+  </si>
+  <si>
+    <t>K/ZN</t>
+  </si>
+  <si>
+    <t>ROCKFISH INSIDE</t>
+  </si>
+  <si>
+    <t>ROCKFISH OUTSIDE</t>
+  </si>
+  <si>
+    <t>SCHEDULE II</t>
+  </si>
+  <si>
+    <t>SPINY DOGFISH</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>GFFOS FISHERY_SECTOR</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>acro</t>
+  </si>
+  <si>
+    <t>GFT</t>
+  </si>
+  <si>
+    <t>KZN</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>RFO</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>ZNR</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>KOL</t>
+  </si>
+  <si>
+    <t>GLL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -19974,11 +20058,23 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="36">
@@ -20339,7 +20435,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -20389,8 +20485,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -20478,8 +20575,15 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -20519,6 +20623,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_ameth" xfId="42"/>
     <cellStyle name="Normal_ART" xfId="44"/>
+    <cellStyle name="Normal_fid" xfId="49"/>
     <cellStyle name="Normal_major" xfId="48"/>
     <cellStyle name="Normal_mat.conv" xfId="45"/>
     <cellStyle name="Normal_mat.rf" xfId="46"/>
@@ -43269,7 +43374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C34"/>
     </sheetView>
   </sheetViews>
@@ -67176,18 +67281,19 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" activeCellId="1" sqref="A14:A27 D14:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1030</v>
       </c>
@@ -67198,7 +67304,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -67209,7 +67315,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -67220,7 +67326,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -67231,7 +67337,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -67242,7 +67348,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -67253,7 +67359,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>8</v>
       </c>
@@ -67264,7 +67370,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9</v>
       </c>
@@ -67275,7 +67381,225 @@
         <v>1045</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="37" t="s">
+        <v>6582</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>6583</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6597</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="38" t="s">
+        <v>6584</v>
+      </c>
+      <c r="B14" s="39">
+        <v>33040</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="38" t="s">
+        <v>6585</v>
+      </c>
+      <c r="B15" s="39">
+        <v>8900</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="38" t="s">
+        <v>6586</v>
+      </c>
+      <c r="B16" s="39">
+        <v>5671167</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="38" t="s">
+        <v>6587</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1009333</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="38" t="s">
+        <v>6588</v>
+      </c>
+      <c r="B18" s="39">
+        <v>423797</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="38" t="s">
+        <v>6589</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1137</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="38" t="s">
+        <v>6590</v>
+      </c>
+      <c r="B20" s="39">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="38" t="s">
+        <v>6349</v>
+      </c>
+      <c r="B21" s="39">
+        <v>85577</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="38" t="s">
+        <v>6591</v>
+      </c>
+      <c r="B22" s="39">
+        <v>50723</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="38" t="s">
+        <v>6592</v>
+      </c>
+      <c r="B23" s="39">
+        <v>306628</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="38" t="s">
+        <v>6344</v>
+      </c>
+      <c r="B24" s="39">
+        <v>361188</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="38" t="s">
+        <v>6593</v>
+      </c>
+      <c r="B25" s="39">
+        <v>73408</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="38" t="s">
+        <v>6594</v>
+      </c>
+      <c r="B26" s="39">
+        <v>68494</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="38" t="s">
+        <v>6595</v>
+      </c>
+      <c r="B27" s="39">
+        <v>622193</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6606</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A14:B27">
+    <sortCondition ref="A14:A27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
